--- a/biology/Médecine/Karl_Bogislaus_Reichert/Karl_Bogislaus_Reichert.xlsx
+++ b/biology/Médecine/Karl_Bogislaus_Reichert/Karl_Bogislaus_Reichert.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Karl Bogislaus Reichert, né à Rastenburg le 20 décembre 1811 et mort à Berlin le 21 décembre 1883, est un anatomiste, embryologiste et histologiste allemand.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Reichert est né à Rastenburg (Kętrzyn), en Prusse orientale. À partir de 1831, il étudie à l'université de Königsberg, où il est l'élève de l'embryologiste Karl Ernst Baer, puis poursuit ses études à Berlin sous la direction de Friedrich Schlemm et Johannes Peter Müller. En 1836, il obtient son doctorat avec une thèse sur les arcs branchiaux des embryons de vertébrés, puis il travaille comme interne à la Charité et, de 1839 à 1843, il est assistant et prospecteur à l'université de Berlin.
 En 1843, il obtient la chaire d'anatomie à l'université de Dorpat et, dix ans plus tard, il succède à Karl Theodor Ernst von Siebold en tant que professeur de physiologie à l'université de Breslau. En 1858, il retourne à Berlin en tant que titulaire de la chaire d'anatomie, où il succède à son ancien mentor, Johannes Peter Müller.
@@ -544,7 +558,9 @@
           <t>Œuvres, travaux et publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>(de) De embryonum arcubus sic dictis branchialibus, Berlin, 1836.
 (de) Ueber die Visceralbogen der Wirbelthiere im Allgemeinen und deren Metamorphosen bei den Vögeln und Säugethieren, Berlin, 1837.
@@ -578,7 +594,9 @@
           <t>Literatur</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Young-Ok Kim: Karl Bogislaus Reichert (1811 - 1883); sein Leben und seine Forschungen zur Anatomie und Entwicklungsgeschichte.  Univ. Mainz, Diss., 2000
 (de) Peter Voswinckel, « Reichert, Karl Bogislaus », dans Neue Deutsche Biographie (NDB), vol. 21, Berlin, Duncker &amp; Humblot, 2003, p. 313–314 (original numérisé).</t>
